--- a/out_booth_254/suspect_summary.xlsx
+++ b/out_booth_254/suspect_summary.xlsx
@@ -774,10 +774,18 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Serial number 4 does not have any valid parent or spouse relationship with other voters in house number 1 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2542,12 +2550,12 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Serial number 30 is the only voter listed under house number 2-2 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR' in booth 254.</t>
+          <t>Serial number 30 does not have any valid parent or spouse relationship with other voters in house number 2-2 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -2612,18 +2620,10 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Serial number 31 is the only voter listed under house number 2/2 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR' in booth 254.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3040,18 +3040,10 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Serial number 37 is the only voter listed under house number 2/5 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR' in booth 254.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3114,10 +3106,18 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Serial number 38 does not have any valid parent or spouse relationship with other voters in house number 3 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3518,10 +3518,18 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Serial number 44 does not have any valid parent or spouse relationship with other voters in house number 3 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4730,18 +4738,10 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Serial number 62 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4952,10 +4952,18 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Serial number 65 does not have any valid parent or spouse relationship with other voters in house number 5 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5018,10 +5026,18 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Serial number 66 does not have any valid parent or spouse relationship with other voters in house number 5 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5620,18 +5636,10 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>Serial number 75 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -8686,10 +8694,18 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>Serial number 120 does not have any valid parent or spouse relationship with other voters in house number 12/1 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -9494,10 +9510,18 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>0</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>Serial number 132 does not have any valid parent or spouse relationship with other voters in house number 14 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -9758,18 +9782,10 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>1</v>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>Serial number 136 does not have any valid parent or spouse relationship with other voters in house number 14-1 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -11514,10 +11530,18 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>0</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>Serial number 162 does not have any valid parent or spouse relationship with other voters in house number 18 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -12346,10 +12370,18 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>0</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>Serial number 174 does not have any valid parent or spouse relationship with other voters in house number 21 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -13218,10 +13250,18 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>0</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>Serial number 186 does not have any valid parent or spouse relationship with other voters in house number 28 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -13284,10 +13324,18 @@
         </is>
       </c>
       <c r="N188" t="n">
-        <v>0</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>Serial number 187 does not have any valid parent or spouse relationship with other voters in house number 28 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -13564,10 +13612,18 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>Serial number 191 does not have any valid parent or spouse relationship with other voters in house number 28B on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -13762,16 +13818,16 @@
         </is>
       </c>
       <c r="N195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>Serial number 194 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 194 does not have any valid parent or spouse relationship with other voters in house number 28B on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'. | Serial number 194 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -15458,10 +15514,18 @@
         </is>
       </c>
       <c r="N219" t="n">
-        <v>0</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>Serial number 218 does not have any valid parent or spouse relationship with other voters in house number 106 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -15524,10 +15588,18 @@
         </is>
       </c>
       <c r="N220" t="n">
-        <v>0</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>Serial number 219 does not have any valid parent or spouse relationship with other voters in house number 106 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -15664,10 +15736,18 @@
         </is>
       </c>
       <c r="N222" t="n">
-        <v>0</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>Serial number 221 does not have any valid parent or spouse relationship with other voters in house number 107 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -15730,10 +15810,18 @@
         </is>
       </c>
       <c r="N223" t="n">
-        <v>0</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>Serial number 222 does not have any valid parent or spouse relationship with other voters in house number 107 on street '1-WARD NO 61 MAHATHMA GANDHI NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -18840,10 +18928,18 @@
         </is>
       </c>
       <c r="N266" t="n">
-        <v>0</v>
-      </c>
-      <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>Serial number 265 does not have any valid parent or spouse relationship with other voters in house number 14 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -19868,16 +19964,16 @@
         </is>
       </c>
       <c r="N280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>House number 2 on street '2-WARD NO 61 THIRUKUMARAN NAGAR' contains 21 registered voters including serial number 279, which exceeds the household size threshold.</t>
+          <t>Serial number 279 does not have any valid parent or spouse relationship with other voters in house number 2 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'. | House number 2 on street '2-WARD NO 61 THIRUKUMARAN NAGAR' contains 21 registered voters including serial number 279, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -20600,18 +20696,10 @@
         </is>
       </c>
       <c r="N290" t="n">
-        <v>1</v>
-      </c>
-      <c r="O290" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P290" t="inlineStr">
-        <is>
-          <t>Serial number 289 is the only voter listed under house number 2/2 on street '2-WARD NO 61 THIRUKUMARAN NAGAR' in booth 254.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O290" t="inlineStr"/>
+      <c r="P290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -21210,10 +21298,18 @@
         </is>
       </c>
       <c r="N299" t="n">
-        <v>0</v>
-      </c>
-      <c r="O299" t="inlineStr"/>
-      <c r="P299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>Serial number 298 does not have any valid parent or spouse relationship with other voters in house number 3 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -22958,10 +23054,18 @@
         </is>
       </c>
       <c r="N325" t="n">
-        <v>0</v>
-      </c>
-      <c r="O325" t="inlineStr"/>
-      <c r="P325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>Serial number 324 does not have any valid parent or spouse relationship with other voters in house number 5 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -23238,16 +23342,16 @@
         </is>
       </c>
       <c r="N329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
         <is>
-          <t>House number 6 on street '2-WARD NO 61 THIRUKUMARAN NAGAR' contains 12 registered voters including serial number 328, which exceeds the household size threshold.</t>
+          <t>Serial number 328 does not have any valid parent or spouse relationship with other voters in house number 6 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'. | House number 6 on street '2-WARD NO 61 THIRUKUMARAN NAGAR' contains 12 registered voters including serial number 328, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -23460,16 +23564,16 @@
         </is>
       </c>
       <c r="N332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P332" t="inlineStr">
         <is>
-          <t>House number 6 on street '2-WARD NO 61 THIRUKUMARAN NAGAR' contains 12 registered voters including serial number 331, which exceeds the household size threshold.</t>
+          <t>Serial number 331 does not have any valid parent or spouse relationship with other voters in house number 6 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'. | House number 6 on street '2-WARD NO 61 THIRUKUMARAN NAGAR' contains 12 registered voters including serial number 331, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -23534,16 +23638,16 @@
         </is>
       </c>
       <c r="N333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
         <is>
-          <t>House number 6 on street '2-WARD NO 61 THIRUKUMARAN NAGAR' contains 12 registered voters including serial number 332, which exceeds the household size threshold.</t>
+          <t>Serial number 332 does not have any valid parent or spouse relationship with other voters in house number 6 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'. | House number 6 on street '2-WARD NO 61 THIRUKUMARAN NAGAR' contains 12 registered voters including serial number 332, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -25338,10 +25442,18 @@
         </is>
       </c>
       <c r="N359" t="n">
-        <v>0</v>
-      </c>
-      <c r="O359" t="inlineStr"/>
-      <c r="P359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>Serial number 358 does not have any valid parent or spouse relationship with other voters in house number 8-1 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -25404,18 +25516,10 @@
         </is>
       </c>
       <c r="N360" t="n">
-        <v>1</v>
-      </c>
-      <c r="O360" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P360" t="inlineStr">
-        <is>
-          <t>Serial number 359 is the only voter listed under house number 8/1 on street '2-WARD NO 61 THIRUKUMARAN NAGAR' in booth 254.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O360" t="inlineStr"/>
+      <c r="P360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -26756,10 +26860,18 @@
         </is>
       </c>
       <c r="N380" t="n">
-        <v>0</v>
-      </c>
-      <c r="O380" t="inlineStr"/>
-      <c r="P380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>Serial number 379 does not have any valid parent or spouse relationship with other voters in house number 12 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -26888,10 +27000,18 @@
         </is>
       </c>
       <c r="N382" t="n">
-        <v>0</v>
-      </c>
-      <c r="O382" t="inlineStr"/>
-      <c r="P382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P382" t="inlineStr">
+        <is>
+          <t>Serial number 381 does not have any valid parent or spouse relationship with other voters in house number 12 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -27548,10 +27668,18 @@
         </is>
       </c>
       <c r="N392" t="n">
-        <v>0</v>
-      </c>
-      <c r="O392" t="inlineStr"/>
-      <c r="P392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>Serial number 391 does not have any valid parent or spouse relationship with other voters in house number 14 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -27614,10 +27742,18 @@
         </is>
       </c>
       <c r="N393" t="n">
-        <v>0</v>
-      </c>
-      <c r="O393" t="inlineStr"/>
-      <c r="P393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>Serial number 392 does not have any valid parent or spouse relationship with other voters in house number 14 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -28842,10 +28978,18 @@
         </is>
       </c>
       <c r="N411" t="n">
-        <v>0</v>
-      </c>
-      <c r="O411" t="inlineStr"/>
-      <c r="P411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>Serial number 410 does not have any valid parent or spouse relationship with other voters in house number 154 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -28908,10 +29052,18 @@
         </is>
       </c>
       <c r="N412" t="n">
-        <v>0</v>
-      </c>
-      <c r="O412" t="inlineStr"/>
-      <c r="P412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P412" t="inlineStr">
+        <is>
+          <t>Serial number 411 does not have any valid parent or spouse relationship with other voters in house number 154 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -29568,10 +29720,18 @@
         </is>
       </c>
       <c r="N422" t="n">
-        <v>0</v>
-      </c>
-      <c r="O422" t="inlineStr"/>
-      <c r="P422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>Serial number 421 does not have any valid parent or spouse relationship with other voters in house number 17 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -30202,10 +30362,18 @@
         </is>
       </c>
       <c r="N431" t="n">
-        <v>0</v>
-      </c>
-      <c r="O431" t="inlineStr"/>
-      <c r="P431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P431" t="inlineStr">
+        <is>
+          <t>Serial number 430 does not have any valid parent or spouse relationship with other voters in house number 18 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -30268,10 +30436,18 @@
         </is>
       </c>
       <c r="N432" t="n">
-        <v>0</v>
-      </c>
-      <c r="O432" t="inlineStr"/>
-      <c r="P432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t>Serial number 431 does not have any valid parent or spouse relationship with other voters in house number 18 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -30400,18 +30576,10 @@
         </is>
       </c>
       <c r="N434" t="n">
-        <v>1</v>
-      </c>
-      <c r="O434" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P434" t="inlineStr">
-        <is>
-          <t>Serial number 433 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O434" t="inlineStr"/>
+      <c r="P434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -31488,18 +31656,10 @@
         </is>
       </c>
       <c r="N450" t="n">
-        <v>1</v>
-      </c>
-      <c r="O450" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P450" t="inlineStr">
-        <is>
-          <t>Serial number 449 is the only voter listed under house number 20/2 on street '2-WARD NO 61 THIRUKUMARAN NAGAR' in booth 254.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O450" t="inlineStr"/>
+      <c r="P450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -32098,10 +32258,18 @@
         </is>
       </c>
       <c r="N459" t="n">
-        <v>0</v>
-      </c>
-      <c r="O459" t="inlineStr"/>
-      <c r="P459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P459" t="inlineStr">
+        <is>
+          <t>Serial number 458 does not have any valid parent or spouse relationship with other voters in house number 22 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -33294,10 +33462,18 @@
         </is>
       </c>
       <c r="N477" t="n">
-        <v>0</v>
-      </c>
-      <c r="O477" t="inlineStr"/>
-      <c r="P477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t>Serial number 476 does not have any valid parent or spouse relationship with other voters in house number 22-6 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -33426,10 +33602,18 @@
         </is>
       </c>
       <c r="N479" t="n">
-        <v>0</v>
-      </c>
-      <c r="O479" t="inlineStr"/>
-      <c r="P479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>Serial number 478 does not have any valid parent or spouse relationship with other voters in house number 22-6 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -34530,18 +34714,10 @@
         </is>
       </c>
       <c r="N495" t="n">
-        <v>1</v>
-      </c>
-      <c r="O495" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P495" t="inlineStr">
-        <is>
-          <t>Serial number 494 is the only voter listed under house number 23-2 on street '2-WARD NO 61 THIRUKUMARAN NAGAR' in booth 254.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O495" t="inlineStr"/>
+      <c r="P495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -35832,10 +36008,18 @@
         </is>
       </c>
       <c r="N514" t="n">
-        <v>0</v>
-      </c>
-      <c r="O514" t="inlineStr"/>
-      <c r="P514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>Serial number 513 does not have any valid parent or spouse relationship with other voters in house number 25 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -36656,10 +36840,18 @@
         </is>
       </c>
       <c r="N526" t="n">
-        <v>0</v>
-      </c>
-      <c r="O526" t="inlineStr"/>
-      <c r="P526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P526" t="inlineStr">
+        <is>
+          <t>Serial number 525 does not have any valid parent or spouse relationship with other voters in house number 28 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -37464,10 +37656,18 @@
         </is>
       </c>
       <c r="N538" t="n">
-        <v>0</v>
-      </c>
-      <c r="O538" t="inlineStr"/>
-      <c r="P538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P538" t="inlineStr">
+        <is>
+          <t>Serial number 537 does not have any valid parent or spouse relationship with other voters in house number 33 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -37530,10 +37730,18 @@
         </is>
       </c>
       <c r="N539" t="n">
-        <v>0</v>
-      </c>
-      <c r="O539" t="inlineStr"/>
-      <c r="P539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O539" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P539" t="inlineStr">
+        <is>
+          <t>Serial number 538 does not have any valid parent or spouse relationship with other voters in house number 33 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -37662,18 +37870,10 @@
         </is>
       </c>
       <c r="N541" t="n">
-        <v>1</v>
-      </c>
-      <c r="O541" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P541" t="inlineStr">
-        <is>
-          <t>Serial number 540 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O541" t="inlineStr"/>
+      <c r="P541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -39170,10 +39370,18 @@
         </is>
       </c>
       <c r="N563" t="n">
-        <v>0</v>
-      </c>
-      <c r="O563" t="inlineStr"/>
-      <c r="P563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O563" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P563" t="inlineStr">
+        <is>
+          <t>Serial number 562 does not have any valid parent or spouse relationship with other voters in house number 56 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -39664,10 +39872,18 @@
         </is>
       </c>
       <c r="N570" t="n">
-        <v>0</v>
-      </c>
-      <c r="O570" t="inlineStr"/>
-      <c r="P570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O570" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P570" t="inlineStr">
+        <is>
+          <t>Serial number 569 does not have any valid parent or spouse relationship with other voters in house number 64 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -39730,16 +39946,16 @@
         </is>
       </c>
       <c r="N571" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>COPY_SAME_PERSON_DIFFERENT_DOOR</t>
+          <t>ADOPTED_NO_RELATIVE, COPY_SAME_PERSON_DIFFERENT_DOOR</t>
         </is>
       </c>
       <c r="P571" t="inlineStr">
         <is>
-          <t>Serial number 570 has identical personal and family details as serial number(s) [377], but appears under different house number(s): ['11'].</t>
+          <t>Serial number 570 does not have any valid parent or spouse relationship with other voters in house number 64 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'. | Serial number 570 has identical personal and family details as serial number(s) [377], but appears under different house number(s): ['11'].</t>
         </is>
       </c>
     </row>
@@ -41592,10 +41808,18 @@
         </is>
       </c>
       <c r="N598" t="n">
-        <v>0</v>
-      </c>
-      <c r="O598" t="inlineStr"/>
-      <c r="P598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O598" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P598" t="inlineStr">
+        <is>
+          <t>Serial number 597 does not have any valid parent or spouse relationship with other voters in house number 5 on street '2-WARD NO 61 THIRUKUMARAN NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -41732,16 +41956,16 @@
         </is>
       </c>
       <c r="N600" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P600" t="inlineStr">
         <is>
-          <t>House number 'Flat' does not contain any numeric digits.</t>
+          <t>Serial number 599 does not have any valid parent or spouse relationship with other voters in house number Flat on street '2-WARD NO 61 THIRUKUMARAN NAGAR'. | House number 'Flat' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -41806,16 +42030,16 @@
         </is>
       </c>
       <c r="N601" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P601" t="inlineStr">
         <is>
-          <t>Serial number 600 was flagged due to rule: INVALID_EPIC_ID. | House number 'Flat' does not contain any numeric digits.</t>
+          <t>Serial number 600 does not have any valid parent or spouse relationship with other voters in house number Flat on street '2-WARD NO 61 THIRUKUMARAN NAGAR'. | Serial number 600 was flagged due to rule: INVALID_EPIC_ID. | House number 'Flat' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -41880,16 +42104,16 @@
         </is>
       </c>
       <c r="N602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P602" t="inlineStr">
         <is>
-          <t>House number 'NO' does not contain any numeric digits.</t>
+          <t>Serial number 601 does not have any valid parent or spouse relationship with other voters in house number NO on street '2-WARD NO 61 THIRUKUMARAN NAGAR'. | House number 'NO' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -42028,16 +42252,16 @@
         </is>
       </c>
       <c r="N604" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P604" t="inlineStr">
         <is>
-          <t>House number 'NO' does not contain any numeric digits.</t>
+          <t>Serial number 603 does not have any valid parent or spouse relationship with other voters in house number NO on street '2-WARD NO 61 THIRUKUMARAN NAGAR'. | House number 'NO' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -43988,10 +44212,18 @@
         </is>
       </c>
       <c r="N632" t="n">
-        <v>0</v>
-      </c>
-      <c r="O632" t="inlineStr"/>
-      <c r="P632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O632" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P632" t="inlineStr">
+        <is>
+          <t>Serial number 631 does not have any valid parent or spouse relationship with other voters in house number 7 on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION'.</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -44128,10 +44360,18 @@
         </is>
       </c>
       <c r="N634" t="n">
-        <v>0</v>
-      </c>
-      <c r="O634" t="inlineStr"/>
-      <c r="P634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O634" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P634" t="inlineStr">
+        <is>
+          <t>Serial number 633 does not have any valid parent or spouse relationship with other voters in house number 7 on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION'.</t>
+        </is>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -46030,18 +46270,10 @@
         </is>
       </c>
       <c r="N661" t="n">
-        <v>1</v>
-      </c>
-      <c r="O661" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P661" t="inlineStr">
-        <is>
-          <t>Serial number 660 is the only voter listed under house number 22-3 on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION' in booth 254.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O661" t="inlineStr"/>
+      <c r="P661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -46376,10 +46608,18 @@
         </is>
       </c>
       <c r="N666" t="n">
-        <v>0</v>
-      </c>
-      <c r="O666" t="inlineStr"/>
-      <c r="P666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O666" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P666" t="inlineStr">
+        <is>
+          <t>Serial number 665 does not have any valid parent or spouse relationship with other voters in house number 22-4 on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION'.</t>
+        </is>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -46442,10 +46682,18 @@
         </is>
       </c>
       <c r="N667" t="n">
-        <v>0</v>
-      </c>
-      <c r="O667" t="inlineStr"/>
-      <c r="P667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O667" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P667" t="inlineStr">
+        <is>
+          <t>Serial number 666 does not have any valid parent or spouse relationship with other voters in house number 22-4 on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION'.</t>
+        </is>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -47192,10 +47440,18 @@
         </is>
       </c>
       <c r="N678" t="n">
-        <v>0</v>
-      </c>
-      <c r="O678" t="inlineStr"/>
-      <c r="P678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O678" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P678" t="inlineStr">
+        <is>
+          <t>Serial number 677 does not have any valid parent or spouse relationship with other voters in house number 23 on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION'.</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -47324,10 +47580,18 @@
         </is>
       </c>
       <c r="N680" t="n">
-        <v>0</v>
-      </c>
-      <c r="O680" t="inlineStr"/>
-      <c r="P680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O680" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P680" t="inlineStr">
+        <is>
+          <t>Serial number 679 does not have any valid parent or spouse relationship with other voters in house number 23 on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION'.</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -47390,10 +47654,18 @@
         </is>
       </c>
       <c r="N681" t="n">
-        <v>0</v>
-      </c>
-      <c r="O681" t="inlineStr"/>
-      <c r="P681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O681" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P681" t="inlineStr">
+        <is>
+          <t>Serial number 680 does not have any valid parent or spouse relationship with other voters in house number 23 on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION'.</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -47728,18 +48000,10 @@
         </is>
       </c>
       <c r="N686" t="n">
-        <v>1</v>
-      </c>
-      <c r="O686" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P686" t="inlineStr">
-        <is>
-          <t>Serial number 685 is the only voter listed under house number 23-2 on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION' in booth 254.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O686" t="inlineStr"/>
+      <c r="P686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="n">
@@ -47876,18 +48140,10 @@
         </is>
       </c>
       <c r="N688" t="n">
-        <v>1</v>
-      </c>
-      <c r="O688" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P688" t="inlineStr">
-        <is>
-          <t>Serial number 687 is the only voter listed under house number 23/2 on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION' in booth 254.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O688" t="inlineStr"/>
+      <c r="P688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="n">
@@ -48972,16 +49228,16 @@
         </is>
       </c>
       <c r="N704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME, UNDER_18</t>
+          <t>UNDER_18</t>
         </is>
       </c>
       <c r="P704" t="inlineStr">
         <is>
-          <t>Serial number 703 is the only voter listed under house number 34/2 on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION' in booth 254. | Serial number 703 has age 2, below voting age.</t>
+          <t>Serial number 703 has age 2, below voting age.</t>
         </is>
       </c>
     </row>
@@ -50348,16 +50604,16 @@
         </is>
       </c>
       <c r="N724" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P724" t="inlineStr">
         <is>
-          <t>Serial number 723 is the only voter listed under house number 220-2 on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION' in booth 254. | Serial number 723 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 723 is the only voter listed under house number 220-2 on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION' in booth 254.</t>
         </is>
       </c>
     </row>
@@ -50792,16 +51048,16 @@
         </is>
       </c>
       <c r="N730" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID, INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, AGE_ZERO_OR_INVALID, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P730" t="inlineStr">
         <is>
-          <t>Serial number 729 has invalid age value 0. | House number 'Royal' does not contain any numeric digits.</t>
+          <t>Serial number 729 does not have any valid parent or spouse relationship with other voters in house number Royal on street '3-WARD NO 61 THIRUKUMARAN NAGAR EXTENSION'. | Serial number 729 has invalid age value 0. | House number 'Royal' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -51608,18 +51864,10 @@
         </is>
       </c>
       <c r="N742" t="n">
-        <v>1</v>
-      </c>
-      <c r="O742" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P742" t="inlineStr">
-        <is>
-          <t>Serial number 741 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O742" t="inlineStr"/>
+      <c r="P742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="n">
@@ -52828,18 +53076,10 @@
         </is>
       </c>
       <c r="N760" t="n">
-        <v>1</v>
-      </c>
-      <c r="O760" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P760" t="inlineStr">
-        <is>
-          <t>Serial number 759 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O760" t="inlineStr"/>
+      <c r="P760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="n">
@@ -52906,12 +53146,12 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P761" t="inlineStr">
         <is>
-          <t>Serial number 760 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 760 does not have any valid parent or spouse relationship with other voters in house number 8 on street '4-WARD NO 61 SIVA SRI GARDEN'.</t>
         </is>
       </c>
     </row>
@@ -54014,18 +54254,10 @@
         </is>
       </c>
       <c r="N777" t="n">
-        <v>1</v>
-      </c>
-      <c r="O777" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P777" t="inlineStr">
-        <is>
-          <t>Serial number 776 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O777" t="inlineStr"/>
+      <c r="P777" t="inlineStr"/>
     </row>
     <row r="778">
       <c r="A778" t="n">
@@ -55292,10 +55524,18 @@
         </is>
       </c>
       <c r="N796" t="n">
-        <v>0</v>
-      </c>
-      <c r="O796" t="inlineStr"/>
-      <c r="P796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O796" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P796" t="inlineStr">
+        <is>
+          <t>Serial number 795 does not have any valid parent or spouse relationship with other voters in house number 15 on street '4-WARD NO 61 SIVA SRI GARDEN'.</t>
+        </is>
+      </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
@@ -55424,16 +55664,16 @@
         </is>
       </c>
       <c r="N798" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P798" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 15 on street '4-WARD NO 61 SIVA SRI GARDEN' share the same name as serial number 797.</t>
+          <t>Multiple voters in house number 15 on street '4-WARD NO 61 SIVA SRI GARDEN' share the same name as serial number 797. | Serial number 797 does not have any valid parent or spouse relationship with other voters in house number 15 on street '4-WARD NO 61 SIVA SRI GARDEN'.</t>
         </is>
       </c>
     </row>
@@ -55968,10 +56208,18 @@
         </is>
       </c>
       <c r="N806" t="n">
-        <v>0</v>
-      </c>
-      <c r="O806" t="inlineStr"/>
-      <c r="P806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O806" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P806" t="inlineStr">
+        <is>
+          <t>Serial number 805 does not have any valid parent or spouse relationship with other voters in house number 17 on street '4-WARD NO 61 SIVA SRI GARDEN'.</t>
+        </is>
+      </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
@@ -57534,16 +57782,16 @@
         </is>
       </c>
       <c r="N829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P829" t="inlineStr">
         <is>
-          <t>Serial number 828 is the only voter listed under house number 35/1 on street '4-WARD NO 61 SIVA SRI GARDEN' in booth 254. | Serial number 828 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 828 is the only voter listed under house number 35/1 on street '4-WARD NO 61 SIVA SRI GARDEN' in booth 254.</t>
         </is>
       </c>
     </row>
@@ -57674,10 +57922,18 @@
         </is>
       </c>
       <c r="N831" t="n">
-        <v>0</v>
-      </c>
-      <c r="O831" t="inlineStr"/>
-      <c r="P831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O831" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P831" t="inlineStr">
+        <is>
+          <t>Serial number 830 does not have any valid parent or spouse relationship with other voters in house number 39 on street '4-WARD NO 61 SIVA SRI GARDEN'.</t>
+        </is>
+      </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
@@ -57880,18 +58136,10 @@
         </is>
       </c>
       <c r="N834" t="n">
-        <v>1</v>
-      </c>
-      <c r="O834" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P834" t="inlineStr">
-        <is>
-          <t>Serial number 833 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O834" t="inlineStr"/>
+      <c r="P834" t="inlineStr"/>
     </row>
     <row r="835">
       <c r="A835" t="n">
@@ -58662,16 +58910,16 @@
         </is>
       </c>
       <c r="N845" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID</t>
+          <t>ADOPTED_NO_RELATIVE, AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P845" t="inlineStr">
         <is>
-          <t>Serial number 844 has invalid age value 0.</t>
+          <t>Serial number 844 does not have any valid parent or spouse relationship with other voters in house number F2/4 on street '4-WARD NO 61 SIVA SRI GARDEN'. | Serial number 844 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -58736,10 +58984,18 @@
         </is>
       </c>
       <c r="N846" t="n">
-        <v>0</v>
-      </c>
-      <c r="O846" t="inlineStr"/>
-      <c r="P846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O846" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P846" t="inlineStr">
+        <is>
+          <t>Serial number 845 does not have any valid parent or spouse relationship with other voters in house number F2/4 on street '4-WARD NO 61 SIVA SRI GARDEN'.</t>
+        </is>
+      </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
@@ -59222,10 +59478,18 @@
         </is>
       </c>
       <c r="N853" t="n">
-        <v>0</v>
-      </c>
-      <c r="O853" t="inlineStr"/>
-      <c r="P853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O853" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P853" t="inlineStr">
+        <is>
+          <t>Serial number 852 does not have any valid parent or spouse relationship with other voters in house number 1 on street '5-WARD NO 61 DHAYA GARDEN'.</t>
+        </is>
+      </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
@@ -60524,18 +60788,10 @@
         </is>
       </c>
       <c r="N872" t="n">
-        <v>1</v>
-      </c>
-      <c r="O872" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P872" t="inlineStr">
-        <is>
-          <t>Serial number 871 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O872" t="inlineStr"/>
+      <c r="P872" t="inlineStr"/>
     </row>
     <row r="873">
       <c r="A873" t="n">
@@ -60730,18 +60986,10 @@
         </is>
       </c>
       <c r="N875" t="n">
-        <v>1</v>
-      </c>
-      <c r="O875" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P875" t="inlineStr">
-        <is>
-          <t>Serial number 874 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O875" t="inlineStr"/>
+      <c r="P875" t="inlineStr"/>
     </row>
     <row r="876">
       <c r="A876" t="n">
@@ -63376,10 +63624,18 @@
         </is>
       </c>
       <c r="N914" t="n">
-        <v>0</v>
-      </c>
-      <c r="O914" t="inlineStr"/>
-      <c r="P914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O914" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P914" t="inlineStr">
+        <is>
+          <t>Serial number 913 does not have any valid parent or spouse relationship with other voters in house number 16-4 on street '5-WARD NO 61 DHAYA GARDEN'.</t>
+        </is>
+      </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
@@ -64242,18 +64498,10 @@
         </is>
       </c>
       <c r="N927" t="n">
-        <v>1</v>
-      </c>
-      <c r="O927" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P927" t="inlineStr">
-        <is>
-          <t>Serial number 926 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O927" t="inlineStr"/>
+      <c r="P927" t="inlineStr"/>
     </row>
     <row r="928">
       <c r="A928" t="n">
